--- a/F_dataset/ChEMBL/PIM1/PIM1_preprocessing/PIM1_g1.xlsx
+++ b/F_dataset/ChEMBL/PIM1/PIM1_preprocessing/PIM1_g1.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAEC70&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAEB20&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAEAB0&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB29D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAEA40&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE9D0&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB28F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE960&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE8F0&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE880&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB27A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE810&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE7A0&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB26C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE730&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE6C0&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB25E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE650&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE5E0&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE570&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE500&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE490&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB23B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE420&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE3B0&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE340&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE2D0&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB21F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE260&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE1F0&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE180&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB20A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE110&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE0A0&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAE030&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADFC0&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADF50&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADEE0&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADE70&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADE00&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADD90&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADD20&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADCB0&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADC40&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADBD0&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADB60&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADAF0&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADA80&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB19A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FADA10&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAD9A0&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB18C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAD930&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAD8C0&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAD850&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAD770&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAD700&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAD690&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB15B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAD620&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000026CC4FB1540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025409FAD5B0&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
